--- a/laptimer comparison.xlsx
+++ b/laptimer comparison.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Dropbox\elec\ESP32LapTimer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{383E671B-18F6-4361-9A10-8EB4706CD00A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B93D856D-B8CA-4D22-BEC9-7DEB067BF1B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{09BBED6B-59B7-4296-8697-98796CA82551}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$22</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,9 +89,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,10 +1681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E41189A-C907-40AE-B144-D3A3AE2F8F0D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,213 +1714,227 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>12.779</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>12.901999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>(C2-B2)</f>
         <v>0.12299999999999933</v>
       </c>
-      <c r="E2">
-        <f>(B2-C2)/C2</f>
-        <v>-9.5334056735389347E-3</v>
+      <c r="E2" s="2">
+        <f>(B2-C2)/C2*100</f>
+        <v>-0.9533405673538935</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>12.276</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>12.222</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D15" si="0">(C3-B3)</f>
         <v>-5.400000000000027E-2</v>
       </c>
-      <c r="E3">
-        <f>(B3-C3)/C3</f>
-        <v>4.4182621502209356E-3</v>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E15" si="1">(B3-C3)/C3*100</f>
+        <v>0.44182621502209357</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>17.052</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>17.007000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>-4.4999999999998153E-2</v>
       </c>
-      <c r="E4">
-        <f>(B4-C4)/C4</f>
-        <v>2.6459693067559329E-3</v>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26459693067559331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>11.504</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>11.481</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>-2.2999999999999687E-2</v>
       </c>
-      <c r="E5">
-        <f>(B5-C5)/C5</f>
-        <v>2.0033098162180723E-3</v>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20033098162180724</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>12.249000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>12.333</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999631E-2</v>
       </c>
-      <c r="E6">
-        <f>(B6-C6)/C6</f>
-        <v>-6.8109948917538009E-3</v>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.6810994891753801</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>14.02</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>14.114000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>9.4000000000001194E-2</v>
       </c>
-      <c r="E7">
-        <f>(B7-C7)/C7</f>
-        <v>-6.6600538472439555E-3</v>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.66600538472439552</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>12.101000000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>11.861000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>-0.24000000000000021</v>
       </c>
-      <c r="E8">
-        <f>(B8-C8)/C8</f>
-        <v>2.0234381586712771E-2</v>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0234381586712771</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>12.17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>12.273999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0.1039999999999992</v>
       </c>
-      <c r="E9">
-        <f>(B9-C9)/C9</f>
-        <v>-8.4731953723316943E-3</v>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.84731953723316944</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>11.513</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>11.561</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="E10">
-        <f>(B10-C10)/C10</f>
-        <v>-4.1518899749156688E-3</v>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.4151889974915669</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>11.824</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>11.862</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>3.8000000000000256E-2</v>
       </c>
-      <c r="E11">
-        <f>(B11-C11)/C11</f>
-        <v>-3.2035069971337259E-3</v>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.3203506997133726</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>12.831</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>12.833</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000006679E-3</v>
       </c>
-      <c r="E12">
-        <f>(B12-C12)/C12</f>
-        <v>-1.5584820384950267E-4</v>
-      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5584820384950267E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1928,13 +1953,13 @@
         <v>0.13100000000002865</v>
       </c>
       <c r="E15" s="1">
-        <f>(B15-C15)/C15</f>
-        <v>-9.3271626913512737E-4</v>
+        <f t="shared" si="1"/>
+        <v>-9.3271626913512734E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>